--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/67351593/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/67351593/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9942031502723694</v>
+        <v>0.9891977906227112</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.993375837802887</v>
+        <v>0.9878093004226685</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9101846814155579</v>
+        <v>0.8876274824142456</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9935192465782166</v>
+        <v>0.9881638884544373</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9939339756965637</v>
+        <v>0.9888394474983215</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9947383999824524</v>
+        <v>0.99010169506073</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9939574003219604</v>
+        <v>0.9888918995857239</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9947383999824524</v>
+        <v>0.99010169506073</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9948086142539978</v>
+        <v>0.9902605414390564</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9950803518295288</v>
+        <v>0.9906743168830872</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9731906056404114</v>
+        <v>0.9664465188980103</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9944392442703247</v>
+        <v>0.9896165132522583</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9940651655197144</v>
+        <v>0.9888620972633362</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9933961033821106</v>
+        <v>0.9879847764968872</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9935778379440308</v>
+        <v>0.98819899559021</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5914077758789062</v>
+        <v>0.4522117376327515</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9942670464515686</v>
+        <v>0.9893057942390442</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9950489401817322</v>
+        <v>0.9905813932418823</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9938933253288269</v>
+        <v>0.9887635707855225</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9944703578948975</v>
+        <v>0.989636242389679</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9942378997802734</v>
+        <v>0.9893227219581604</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.994479775428772</v>
+        <v>0.9897430539131165</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9227307438850403</v>
+        <v>0.904746413230896</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4692763686180115</v>
+        <v>0.3719818592071533</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9942595958709717</v>
+        <v>0.9893107414245605</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9939804077148438</v>
+        <v>0.9888968467712402</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9935146570205688</v>
+        <v>0.9881905317306519</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9926940202713013</v>
+        <v>0.9869230389595032</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9940880537033081</v>
+        <v>0.988958477973938</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9654362797737122</v>
+        <v>0.9499312043190002</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9742257595062256</v>
+        <v>0.9674345850944519</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9698569774627686</v>
+        <v>0.9614282846450806</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9939416646957397</v>
+        <v>0.988911509513855</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9717641472816467</v>
+        <v>0.964153528213501</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9947777986526489</v>
+        <v>0.9901739358901978</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9105538129806519</v>
+        <v>0.8961308002471924</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.965880811214447</v>
+        <v>0.9505560994148254</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9947951436042786</v>
+        <v>0.9902080893516541</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9668236970901489</v>
+        <v>0.9593092799186707</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9624983072280884</v>
+        <v>0.9457549452781677</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9654050469398499</v>
+        <v>0.9560850262641907</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9678066372871399</v>
+        <v>0.9529116749763489</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.963706910610199</v>
+        <v>0.9479577541351318</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6510382294654846</v>
+        <v>0.6688405275344849</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9629229307174683</v>
+        <v>0.9462600946426392</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9950915575027466</v>
+        <v>0.9906889200210571</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9556525349617004</v>
+        <v>0.9370083808898926</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9384621381759644</v>
+        <v>0.9146520495414734</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9926383495330811</v>
+        <v>0.9869065284729004</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9556525349617004</v>
+        <v>0.9370083808898926</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9550957679748535</v>
+        <v>0.9370520710945129</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9939291477203369</v>
+        <v>0.9888305068016052</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9948670864105225</v>
+        <v>0.9903059005737305</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9950586557388306</v>
+        <v>0.9906376600265503</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9705642461776733</v>
+        <v>0.9620345234870911</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9951064586639404</v>
+        <v>0.9907081127166748</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9946963787078857</v>
+        <v>0.989971399307251</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9947888851165771</v>
+        <v>0.9901858568191528</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9946204423904419</v>
+        <v>0.9899287819862366</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.966257631778717</v>
+        <v>0.9571993350982666</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7275599837303162</v>
+        <v>0.7295423150062561</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9701818823814392</v>
+        <v>0.9621289372444153</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9701818823814392</v>
+        <v>0.9621289372444153</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9662807583808899</v>
+        <v>0.9571365714073181</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9701818823814392</v>
+        <v>0.9621289372444153</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.941669225692749</v>
+        <v>0.9107354879379272</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9939111471176147</v>
+        <v>0.9888331890106201</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9672601222991943</v>
+        <v>0.9593349695205688</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9912342429161072</v>
+        <v>0.9846833348274231</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9722077250480652</v>
+        <v>0.9646980166435242</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9945059418678284</v>
+        <v>0.9897225499153137</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9935194849967957</v>
+        <v>0.9881320595741272</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9722077250480652</v>
+        <v>0.9646980166435242</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9926756024360657</v>
+        <v>0.9868936538696289</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9722077250480652</v>
+        <v>0.9646980166435242</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9942870736122131</v>
+        <v>0.989397406578064</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.972253143787384</v>
+        <v>0.9643666744232178</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9927571415901184</v>
+        <v>0.9870016574859619</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.972253143787384</v>
+        <v>0.9643666744232178</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9927472472190857</v>
+        <v>0.9869670271873474</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9927472472190857</v>
+        <v>0.9869670271873474</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9951500296592712</v>
+        <v>0.9907727241516113</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.97327721118927</v>
+        <v>0.9658759236335754</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9941966533660889</v>
+        <v>0.9892657995223999</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9723247289657593</v>
+        <v>0.9647260904312134</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9926960468292236</v>
+        <v>0.9869490265846252</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9944737553596497</v>
+        <v>0.9896430969238281</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.994470477104187</v>
+        <v>0.9896290898323059</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9944760203361511</v>
+        <v>0.9896433353424072</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9944674968719482</v>
+        <v>0.9896153211593628</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9944678544998169</v>
+        <v>0.9896174669265747</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9944652915000916</v>
+        <v>0.9896141886711121</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9950001239776611</v>
+        <v>0.9905410408973694</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6600373983383179</v>
+        <v>0.5924088954925537</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9950181245803833</v>
+        <v>0.9905571937561035</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9477254748344421</v>
+        <v>0.9342322945594788</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9939496517181396</v>
+        <v>0.9888325929641724</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9942048192024231</v>
+        <v>0.9892253279685974</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8258002996444702</v>
+        <v>0.8142872452735901</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9598324298858643</v>
+        <v>0.9429806470870972</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9934524297714233</v>
+        <v>0.9881123900413513</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.942158043384552</v>
+        <v>0.9127109050750732</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9939415454864502</v>
+        <v>0.9888321161270142</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9629987478256226</v>
+        <v>0.9468693137168884</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.928943395614624</v>
+        <v>0.9094728231430054</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9943022727966309</v>
+        <v>0.9894271492958069</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9656398296356201</v>
+        <v>0.9501602053642273</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9626602530479431</v>
+        <v>0.9462390542030334</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9739747643470764</v>
+        <v>0.9671639204025269</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9946550130844116</v>
+        <v>0.9899839162826538</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9732196927070618</v>
+        <v>0.9659938812255859</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9926373958587646</v>
+        <v>0.986607551574707</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9934462904930115</v>
+        <v>0.9880431890487671</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7978582382202148</v>
+        <v>0.7970753312110901</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9064015746116638</v>
+        <v>0.8937234282493591</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9413137435913086</v>
+        <v>0.9118155241012573</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9950199127197266</v>
+        <v>0.9905502796173096</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9413137435913086</v>
+        <v>0.9118155241012573</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9950199127197266</v>
+        <v>0.9905502796173096</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9413137435913086</v>
+        <v>0.9118155241012573</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9950035214424133</v>
+        <v>0.990519106388092</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7481617331504822</v>
+        <v>0.7627764940261841</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9919533133506775</v>
+        <v>0.9854689240455627</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7615134716033936</v>
+        <v>0.7096056938171387</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9935099482536316</v>
+        <v>0.9881442785263062</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5102782249450684</v>
+        <v>0.4659367501735687</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9934365749359131</v>
+        <v>0.9880353808403015</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9944530129432678</v>
+        <v>0.9897486567497253</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9939271807670593</v>
+        <v>0.9889076352119446</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9914012551307678</v>
+        <v>0.9846014976501465</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9935112595558167</v>
+        <v>0.9881765246391296</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9934971332550049</v>
+        <v>0.9880675077438354</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.993556797504425</v>
+        <v>0.9881674647331238</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9928250312805176</v>
+        <v>0.9870606660842896</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9945896863937378</v>
+        <v>0.9896498918533325</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9700161218643188</v>
+        <v>0.9614951610565186</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9946165680885315</v>
+        <v>0.9899258613586426</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9700161218643188</v>
+        <v>0.9614951610565186</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9926786422729492</v>
+        <v>0.9869116544723511</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.941669225692749</v>
+        <v>0.9107354879379272</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9942137598991394</v>
+        <v>0.9892907738685608</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.970630943775177</v>
+        <v>0.9633484482765198</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8705132603645325</v>
+        <v>0.8133667707443237</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7784464955329895</v>
+        <v>0.7662532329559326</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9948930740356445</v>
+        <v>0.9903618097305298</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.928479790687561</v>
+        <v>0.9088274240493774</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9945083260536194</v>
+        <v>0.9897095561027527</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9295775294303894</v>
+        <v>0.9099175333976746</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9946528673171997</v>
+        <v>0.9899364709854126</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9299506545066833</v>
+        <v>0.9104808568954468</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9947195053100586</v>
+        <v>0.9900515675544739</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9633138179779053</v>
+        <v>0.9515904784202576</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9942271709442139</v>
+        <v>0.9893065094947815</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9939730763435364</v>
+        <v>0.9888549447059631</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9935702085494995</v>
+        <v>0.9881375432014465</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9694374203681946</v>
+        <v>0.9615693688392639</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9949893355369568</v>
+        <v>0.9905185103416443</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9610161185264587</v>
+        <v>0.9505407810211182</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9594832062721252</v>
+        <v>0.9421672821044922</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9739856123924255</v>
+        <v>0.9666496515274048</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9594832062721252</v>
+        <v>0.9421672821044922</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9725949168205261</v>
+        <v>0.9651726484298706</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9927283525466919</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9935110211372375</v>
+        <v>0.9881390929222107</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9935448169708252</v>
+        <v>0.9881288409233093</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9935110211372375</v>
+        <v>0.9881390929222107</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9935110211372375</v>
+        <v>0.9881390929222107</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9935448169708252</v>
+        <v>0.9881288409233093</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9942680597305298</v>
+        <v>0.9893385171890259</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.991364598274231</v>
+        <v>0.9848428964614868</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.993486225605011</v>
+        <v>0.9881288409233093</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9942955374717712</v>
+        <v>0.989401638507843</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9939320683479309</v>
+        <v>0.9888179302215576</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9435349702835083</v>
+        <v>0.913607120513916</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9946781396865845</v>
+        <v>0.9900160431861877</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.994678258895874</v>
+        <v>0.9900229573249817</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9947545528411865</v>
+        <v>0.9901493787765503</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9947571754455566</v>
+        <v>0.9901106953620911</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9942589998245239</v>
+        <v>0.9893071055412292</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9944207072257996</v>
+        <v>0.9895580410957336</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.994422972202301</v>
+        <v>0.9895564913749695</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.6315711736679077</v>
+        <v>0.600386917591095</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9939866065979004</v>
+        <v>0.9889203906059265</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9935775995254517</v>
+        <v>0.9882016777992249</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9367793202400208</v>
+        <v>0.9060509204864502</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9665256142616272</v>
+        <v>0.9513506889343262</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9946957230567932</v>
+        <v>0.9900475144386292</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.994763195514679</v>
+        <v>0.9901296496391296</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9948717355728149</v>
+        <v>0.9902907013893127</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9942134022712708</v>
+        <v>0.9892815351486206</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.918742835521698</v>
+        <v>0.9090150594711304</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9942033886909485</v>
+        <v>0.9892891645431519</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9943299293518066</v>
+        <v>0.9894379377365112</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9935257434844971</v>
+        <v>0.9881884455680847</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9596617817878723</v>
+        <v>0.9424653649330139</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9949315190315247</v>
+        <v>0.9904060959815979</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9934738278388977</v>
+        <v>0.9880732893943787</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6650634407997131</v>
+        <v>0.5967584848403931</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9913047552108765</v>
+        <v>0.9847376942634583</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5440255999565125</v>
+        <v>0.4230863451957703</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9934657216072083</v>
+        <v>0.9881055355072021</v>
       </c>
     </row>
   </sheetData>
